--- a/My LOR Links.xlsx
+++ b/My LOR Links.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="11445"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Tasks you worked on (Can be from any function)</t>
   </si>
@@ -61,9 +64,6 @@
     <t>Link 9</t>
   </si>
   <si>
-    <t>{LinkedIn Profile link}</t>
-  </si>
-  <si>
     <t>Link 10</t>
   </si>
   <si>
@@ -80,27 +80,69 @@
   </si>
   <si>
     <t>Please make sure your entries are unique and correct.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7063759651909074944?updateEntityUrn=urn%3Ali%3Afs_feedUpdate%3A%28V2%2Curn%3Ali%3Aactivity%3A7063759651909074944%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/gaurav-deore-b0aa8623a_machinelearning-gripmay23-sparksfoundation-activity-7064458135909920768-xlha?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/shravani-sajekar-643b3021a_dataanalysis-gripmay23-activity-7064652765066575872-bf42?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kavya-m-b123ba245_task2-internship-gripmay23-activity-7064652219857473537-U_jC?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/sudarshan-dash-b0455921b_task6-gripmay23-tsf-activity-7064615438055272449-kAws?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/anshika-mishra-_gripmay23-datascience-businessanalytics-activity-7064674173847019520-Bcul?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/prem-gupta-a5a221196_task1-gripmay23-thesparksfoundation-activity-7064669956092674048-ime8?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/muhammad-sameer-87137922a_task-gripmay23-gripmay23-activity-7065276871780802560-bScC?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umar-anzar</t>
+  </si>
+  <si>
+    <t>https://github.com/umar-anzar/spark-foundation-internship-datascience/tree/main/Task2</t>
+  </si>
+  <si>
+    <t>https://github.com/umar-anzar/spark-foundation-internship-datascience/tree/main/Task1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -110,48 +152,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -341,240 +385,250 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.5"/>
-    <col customWidth="1" min="2" max="2" width="31.5"/>
-    <col customWidth="1" min="6" max="6" width="17.13"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -584,6 +638,19 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="F7" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F8" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>